--- a/static/bo-cau-hoi-violympic/Book1.xlsx
+++ b/static/bo-cau-hoi-violympic/Book1.xlsx
@@ -9,15 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="bo-di-1-tu-sai" sheetId="1" r:id="rId1"/>
-    <sheet name="noi-am-thanh-dung" sheetId="3" r:id="rId2"/>
-    <sheet name="nghe-va-dien-tu-con-thieu" sheetId="4" r:id="rId3"/>
-    <sheet name="chia-dong-tu-trong-ngoac" sheetId="5" r:id="rId4"/>
-    <sheet name="phat-am-khac" sheetId="6" r:id="rId5"/>
-    <sheet name="chon-dap-an-dung-nhat" sheetId="7" r:id="rId6"/>
+    <sheet name="nghe-va-dien-tu-con-thieu" sheetId="4" r:id="rId2"/>
+    <sheet name="phat-am-khac" sheetId="6" r:id="rId3"/>
+    <sheet name="chon-dap-an-dung-nhat" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>answer</t>
   </si>
@@ -55,36 +53,6 @@
     <t>question3</t>
   </si>
   <si>
-    <t>what</t>
-  </si>
-  <si>
-    <t>word1</t>
-  </si>
-  <si>
-    <t>word2</t>
-  </si>
-  <si>
-    <t>word3</t>
-  </si>
-  <si>
-    <t>swim</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>nine</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>night</t>
-  </si>
-  <si>
     <t>your</t>
   </si>
   <si>
@@ -100,21 +68,6 @@
     <t>olds</t>
   </si>
   <si>
-    <t>verb</t>
-  </si>
-  <si>
-    <t>be</t>
-  </si>
-  <si>
-    <t>This</t>
-  </si>
-  <si>
-    <t>a book</t>
-  </si>
-  <si>
-    <t>is</t>
-  </si>
-  <si>
     <t>question4</t>
   </si>
   <si>
@@ -130,12 +83,6 @@
     <t>answer4</t>
   </si>
   <si>
-    <t>"What your name" dung de lam gi</t>
-  </si>
-  <si>
-    <t>Hoi thoi gia</t>
-  </si>
-  <si>
     <t>Hoi tuoi tac</t>
   </si>
   <si>
@@ -155,6 +102,30 @@
   </si>
   <si>
     <t>lik'ed'</t>
+  </si>
+  <si>
+    <t>Hoi thoi gian</t>
+  </si>
+  <si>
+    <t>What</t>
+  </si>
+  <si>
+    <t>Để trả lời cho câu hỏi "What time is it now"</t>
+  </si>
+  <si>
+    <t>I;m fine,thank you.</t>
+  </si>
+  <si>
+    <t>It is 5 o'clock.</t>
+  </si>
+  <si>
+    <t>I live with parents</t>
+  </si>
+  <si>
+    <t>I'm 19 year old.</t>
+  </si>
+  <si>
+    <t>"What your name" dung de lam gi?</t>
   </si>
 </sst>
 </file>
@@ -191,7 +162,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -199,31 +170,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -543,57 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,35 +510,35 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -640,58 +546,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -705,34 +564,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -744,12 +603,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,10 +631,10 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
@@ -783,22 +642,42 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F2">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/static/bo-cau-hoi-violympic/Book1.xlsx
+++ b/static/bo-cau-hoi-violympic/Book1.xlsx
@@ -9,13 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="bo-di-1-tu-sai" sheetId="1" r:id="rId1"/>
-    <sheet name="nghe-va-dien-tu-con-thieu" sheetId="4" r:id="rId2"/>
-    <sheet name="phat-am-khac" sheetId="6" r:id="rId3"/>
-    <sheet name="chon-dap-an-dung-nhat" sheetId="7" r:id="rId4"/>
+    <sheet name="nghe-va-dien-tu-con-thieu" sheetId="4" r:id="rId1"/>
+    <sheet name="phat-am-khac" sheetId="6" r:id="rId2"/>
+    <sheet name="chon-dap-an-dung-nhat" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,14 +26,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>answer</t>
   </si>
   <si>
-    <t>I has a dog</t>
-  </si>
-  <si>
     <t>question</t>
   </si>
   <si>
@@ -56,18 +52,12 @@
     <t>your</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>I'm 19</t>
   </si>
   <si>
     <t>year</t>
   </si>
   <si>
-    <t>olds</t>
-  </si>
-  <si>
     <t>question4</t>
   </si>
   <si>
@@ -83,15 +73,6 @@
     <t>answer4</t>
   </si>
   <si>
-    <t>Hoi tuoi tac</t>
-  </si>
-  <si>
-    <t>Hoi ten</t>
-  </si>
-  <si>
-    <t>Hoi noi chon</t>
-  </si>
-  <si>
     <t>talk'ed'</t>
   </si>
   <si>
@@ -104,18 +85,9 @@
     <t>lik'ed'</t>
   </si>
   <si>
-    <t>Hoi thoi gian</t>
-  </si>
-  <si>
     <t>What</t>
   </si>
   <si>
-    <t>Để trả lời cho câu hỏi "What time is it now"</t>
-  </si>
-  <si>
-    <t>I;m fine,thank you.</t>
-  </si>
-  <si>
     <t>It is 5 o'clock.</t>
   </si>
   <si>
@@ -126,6 +98,30 @@
   </si>
   <si>
     <t>"What your name" dung de lam gi?</t>
+  </si>
+  <si>
+    <t>I'm fine,thank you.</t>
+  </si>
+  <si>
+    <t>Để trả lời cho câu hỏi "What time is it now?"</t>
+  </si>
+  <si>
+    <t>Hỏi thời gian</t>
+  </si>
+  <si>
+    <t>Hỏi tuổi tác</t>
+  </si>
+  <si>
+    <t>Hỏi tên</t>
+  </si>
+  <si>
+    <t>Hỏi nơi chốn</t>
+  </si>
+  <si>
+    <t>name?</t>
+  </si>
+  <si>
+    <t>olds.</t>
   </si>
 </sst>
 </file>
@@ -462,44 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,35 +472,35 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -546,7 +508,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -565,16 +527,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>0</v>
@@ -582,16 +544,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -603,12 +565,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,19 +584,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
@@ -642,19 +604,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -662,19 +624,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F3">
         <v>2</v>
